--- a/data/neut_plate_reader_data/HC150044.xlsx
+++ b/data/neut_plate_reader_data/HC150044.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB1FB9-F6E0-C448-AC7D-DF137C0CB57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="4280" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F159G" sheetId="5" r:id="rId1"/>
     <sheet name="F193D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="I192E" sheetId="6" r:id="rId5"/>
+    <sheet name="K189D" sheetId="7" r:id="rId6"/>
+    <sheet name="WT2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +117,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +208,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +299,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +374,280 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +663,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -564,12 +846,45 @@
   </si>
   <si>
     <t>3/20/2020 11:13:11 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:59:38 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.3 °C</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:58:42 AM</t>
+  </si>
+  <si>
+    <t>8:57:45 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:57:25 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:56:30 AM</t>
+  </si>
+  <si>
+    <t>8:55:32 AM</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:55:16 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.1 °C</t>
+  </si>
+  <si>
+    <t>5/5/2020 8:54:20 AM</t>
+  </si>
+  <si>
+    <t>8:53:23 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,10 +912,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,60 +966,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,23 +994,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -798,7 +1062,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,9 +1095,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,14 +1339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1378,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1112,17 +1410,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1130,12 +1428,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1212,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1234,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1245,7 +1543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1253,12 +1551,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1299,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1638,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1679,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1422,7 +1720,7 @@
         <v>32676</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1761,7 @@
         <v>20745</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1802,7 @@
         <v>19569</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1545,7 +1843,7 @@
         <v>22612</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1586,7 +1884,7 @@
         <v>29223</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1925,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1642,14 +1940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1665,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1979,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1713,17 +2011,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1731,12 +2029,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +2045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +2067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1791,7 +2089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +2100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1813,7 +2111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1824,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1835,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1846,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1854,12 +2152,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1900,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +2239,7 @@
         <v>8829</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1982,7 +2280,7 @@
         <v>11933</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2321,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2064,7 +2362,7 @@
         <v>12747</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2105,7 +2403,7 @@
         <v>12865</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2146,7 +2444,7 @@
         <v>12993</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2187,7 +2485,7 @@
         <v>34487</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2526,7 @@
         <v>8381</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2243,14 +2541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2266,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2580,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2306,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2314,17 +2612,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2332,12 +2630,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2348,7 +2646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2392,7 +2690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2403,7 +2701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2425,7 +2723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2436,7 +2734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2447,7 +2745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2455,12 +2753,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2501,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2840,7 @@
         <v>11875</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2583,7 +2881,7 @@
         <v>14326</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2922,7 @@
         <v>37216</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2665,7 +2963,7 @@
         <v>15297</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2706,7 +3004,7 @@
         <v>15244</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2747,7 +3045,7 @@
         <v>15080</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2788,7 +3086,7 @@
         <v>36776</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2829,7 +3127,7 @@
         <v>10548</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2844,14 +3142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2867,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +3181,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2899,7 +3197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2907,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2915,17 +3213,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2933,12 +3231,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +3247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +3258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2971,7 +3269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2982,7 +3280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2993,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3004,7 +3302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3015,7 +3313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3037,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3048,7 +3346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3056,12 +3354,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3102,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3143,7 +3441,7 @@
         <v>15342</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3184,7 +3482,7 @@
         <v>19480</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3225,7 +3523,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3266,7 +3564,7 @@
         <v>21118</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3307,7 +3605,7 @@
         <v>21002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +3646,7 @@
         <v>21053</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3687,7 @@
         <v>34622</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3430,12 +3728,1815 @@
         <v>14512</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D323964-6EE0-7D48-9FDC-10AAE2A95300}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>14871</v>
+      </c>
+      <c r="C32">
+        <v>15154</v>
+      </c>
+      <c r="D32">
+        <v>15053</v>
+      </c>
+      <c r="E32">
+        <v>15135</v>
+      </c>
+      <c r="F32">
+        <v>15066</v>
+      </c>
+      <c r="G32">
+        <v>15193</v>
+      </c>
+      <c r="H32">
+        <v>15233</v>
+      </c>
+      <c r="I32">
+        <v>15085</v>
+      </c>
+      <c r="J32">
+        <v>15062</v>
+      </c>
+      <c r="K32">
+        <v>14978</v>
+      </c>
+      <c r="L32">
+        <v>14725</v>
+      </c>
+      <c r="M32">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>19607</v>
+      </c>
+      <c r="C33">
+        <v>18923</v>
+      </c>
+      <c r="D33">
+        <v>19029</v>
+      </c>
+      <c r="E33">
+        <v>19078</v>
+      </c>
+      <c r="F33">
+        <v>19272</v>
+      </c>
+      <c r="G33">
+        <v>19020</v>
+      </c>
+      <c r="H33">
+        <v>19086</v>
+      </c>
+      <c r="I33">
+        <v>19348</v>
+      </c>
+      <c r="J33">
+        <v>18916</v>
+      </c>
+      <c r="K33">
+        <v>19410</v>
+      </c>
+      <c r="L33">
+        <v>19132</v>
+      </c>
+      <c r="M33">
+        <v>18962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>37740</v>
+      </c>
+      <c r="C34">
+        <v>37995</v>
+      </c>
+      <c r="D34">
+        <v>38809</v>
+      </c>
+      <c r="E34">
+        <v>39121</v>
+      </c>
+      <c r="F34">
+        <v>38213</v>
+      </c>
+      <c r="G34">
+        <v>39420</v>
+      </c>
+      <c r="H34">
+        <v>40126</v>
+      </c>
+      <c r="I34">
+        <v>39190</v>
+      </c>
+      <c r="J34">
+        <v>39423</v>
+      </c>
+      <c r="K34">
+        <v>38251</v>
+      </c>
+      <c r="L34">
+        <v>38956</v>
+      </c>
+      <c r="M34">
+        <v>36869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38113</v>
+      </c>
+      <c r="C35">
+        <v>39826</v>
+      </c>
+      <c r="D35">
+        <v>38644</v>
+      </c>
+      <c r="E35">
+        <v>40699</v>
+      </c>
+      <c r="F35">
+        <v>39724</v>
+      </c>
+      <c r="G35">
+        <v>38163</v>
+      </c>
+      <c r="H35">
+        <v>36151</v>
+      </c>
+      <c r="I35">
+        <v>31976</v>
+      </c>
+      <c r="J35">
+        <v>23586</v>
+      </c>
+      <c r="K35">
+        <v>18982</v>
+      </c>
+      <c r="L35">
+        <v>18968</v>
+      </c>
+      <c r="M35">
+        <v>20418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38636</v>
+      </c>
+      <c r="C36">
+        <v>37979</v>
+      </c>
+      <c r="D36">
+        <v>37927</v>
+      </c>
+      <c r="E36">
+        <v>38067</v>
+      </c>
+      <c r="F36">
+        <v>38749</v>
+      </c>
+      <c r="G36">
+        <v>36936</v>
+      </c>
+      <c r="H36">
+        <v>35549</v>
+      </c>
+      <c r="I36">
+        <v>30726</v>
+      </c>
+      <c r="J36">
+        <v>23153</v>
+      </c>
+      <c r="K36">
+        <v>18834</v>
+      </c>
+      <c r="L36">
+        <v>18961</v>
+      </c>
+      <c r="M36">
+        <v>20309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37262</v>
+      </c>
+      <c r="C37">
+        <v>37816</v>
+      </c>
+      <c r="D37">
+        <v>38580</v>
+      </c>
+      <c r="E37">
+        <v>38296</v>
+      </c>
+      <c r="F37">
+        <v>36884</v>
+      </c>
+      <c r="G37">
+        <v>35980</v>
+      </c>
+      <c r="H37">
+        <v>34896</v>
+      </c>
+      <c r="I37">
+        <v>30401</v>
+      </c>
+      <c r="J37">
+        <v>22901</v>
+      </c>
+      <c r="K37">
+        <v>18943</v>
+      </c>
+      <c r="L37">
+        <v>18865</v>
+      </c>
+      <c r="M37">
+        <v>20375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35808</v>
+      </c>
+      <c r="C38">
+        <v>36893</v>
+      </c>
+      <c r="D38">
+        <v>36991</v>
+      </c>
+      <c r="E38">
+        <v>36992</v>
+      </c>
+      <c r="F38">
+        <v>35819</v>
+      </c>
+      <c r="G38">
+        <v>37885</v>
+      </c>
+      <c r="H38">
+        <v>38461</v>
+      </c>
+      <c r="I38">
+        <v>35044</v>
+      </c>
+      <c r="J38">
+        <v>37630</v>
+      </c>
+      <c r="K38">
+        <v>36210</v>
+      </c>
+      <c r="L38">
+        <v>36758</v>
+      </c>
+      <c r="M38">
+        <v>35704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>13998</v>
+      </c>
+      <c r="C39">
+        <v>14231</v>
+      </c>
+      <c r="D39">
+        <v>14258</v>
+      </c>
+      <c r="E39">
+        <v>14293</v>
+      </c>
+      <c r="F39">
+        <v>14342</v>
+      </c>
+      <c r="G39">
+        <v>14241</v>
+      </c>
+      <c r="H39">
+        <v>14163</v>
+      </c>
+      <c r="I39">
+        <v>14197</v>
+      </c>
+      <c r="J39">
+        <v>13957</v>
+      </c>
+      <c r="K39">
+        <v>13930</v>
+      </c>
+      <c r="L39">
+        <v>14016</v>
+      </c>
+      <c r="M39">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED38734A-1728-A347-A193-A3065FA69EAC}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9766</v>
+      </c>
+      <c r="C32">
+        <v>9838</v>
+      </c>
+      <c r="D32">
+        <v>9829</v>
+      </c>
+      <c r="E32">
+        <v>9917</v>
+      </c>
+      <c r="F32">
+        <v>9815</v>
+      </c>
+      <c r="G32">
+        <v>9978</v>
+      </c>
+      <c r="H32">
+        <v>10021</v>
+      </c>
+      <c r="I32">
+        <v>10217</v>
+      </c>
+      <c r="J32">
+        <v>9876</v>
+      </c>
+      <c r="K32">
+        <v>9946</v>
+      </c>
+      <c r="L32">
+        <v>9715</v>
+      </c>
+      <c r="M32">
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>12229</v>
+      </c>
+      <c r="C33">
+        <v>11948</v>
+      </c>
+      <c r="D33">
+        <v>11988</v>
+      </c>
+      <c r="E33">
+        <v>12149</v>
+      </c>
+      <c r="F33">
+        <v>12298</v>
+      </c>
+      <c r="G33">
+        <v>12128</v>
+      </c>
+      <c r="H33">
+        <v>12031</v>
+      </c>
+      <c r="I33">
+        <v>12434</v>
+      </c>
+      <c r="J33">
+        <v>12107</v>
+      </c>
+      <c r="K33">
+        <v>11903</v>
+      </c>
+      <c r="L33">
+        <v>11998</v>
+      </c>
+      <c r="M33">
+        <v>12108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>29808</v>
+      </c>
+      <c r="C34">
+        <v>27932</v>
+      </c>
+      <c r="D34">
+        <v>31148</v>
+      </c>
+      <c r="E34">
+        <v>31306</v>
+      </c>
+      <c r="F34">
+        <v>31126</v>
+      </c>
+      <c r="G34">
+        <v>31810</v>
+      </c>
+      <c r="H34">
+        <v>31146</v>
+      </c>
+      <c r="I34">
+        <v>31435</v>
+      </c>
+      <c r="J34">
+        <v>31014</v>
+      </c>
+      <c r="K34">
+        <v>31531</v>
+      </c>
+      <c r="L34">
+        <v>30367</v>
+      </c>
+      <c r="M34">
+        <v>29247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>32257</v>
+      </c>
+      <c r="C35">
+        <v>31891</v>
+      </c>
+      <c r="D35">
+        <v>31347</v>
+      </c>
+      <c r="E35">
+        <v>31696</v>
+      </c>
+      <c r="F35">
+        <v>30703</v>
+      </c>
+      <c r="G35">
+        <v>30560</v>
+      </c>
+      <c r="H35">
+        <v>26365</v>
+      </c>
+      <c r="I35">
+        <v>18750</v>
+      </c>
+      <c r="J35">
+        <v>13830</v>
+      </c>
+      <c r="K35">
+        <v>11998</v>
+      </c>
+      <c r="L35">
+        <v>12221</v>
+      </c>
+      <c r="M35">
+        <v>12951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>31714</v>
+      </c>
+      <c r="C36">
+        <v>31044</v>
+      </c>
+      <c r="D36">
+        <v>31910</v>
+      </c>
+      <c r="E36">
+        <v>31152</v>
+      </c>
+      <c r="F36">
+        <v>31440</v>
+      </c>
+      <c r="G36">
+        <v>29342</v>
+      </c>
+      <c r="H36">
+        <v>26213</v>
+      </c>
+      <c r="I36">
+        <v>18715</v>
+      </c>
+      <c r="J36">
+        <v>13315</v>
+      </c>
+      <c r="K36">
+        <v>11800</v>
+      </c>
+      <c r="L36">
+        <v>12065</v>
+      </c>
+      <c r="M36">
+        <v>12853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>29785</v>
+      </c>
+      <c r="C37">
+        <v>32798</v>
+      </c>
+      <c r="D37">
+        <v>30684</v>
+      </c>
+      <c r="E37">
+        <v>31818</v>
+      </c>
+      <c r="F37">
+        <v>31131</v>
+      </c>
+      <c r="G37">
+        <v>28490</v>
+      </c>
+      <c r="H37">
+        <v>26756</v>
+      </c>
+      <c r="I37">
+        <v>19171</v>
+      </c>
+      <c r="J37">
+        <v>13905</v>
+      </c>
+      <c r="K37">
+        <v>11762</v>
+      </c>
+      <c r="L37">
+        <v>12149</v>
+      </c>
+      <c r="M37">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>28882</v>
+      </c>
+      <c r="C38">
+        <v>29479</v>
+      </c>
+      <c r="D38">
+        <v>29789</v>
+      </c>
+      <c r="E38">
+        <v>30958</v>
+      </c>
+      <c r="F38">
+        <v>30938</v>
+      </c>
+      <c r="G38">
+        <v>31564</v>
+      </c>
+      <c r="H38">
+        <v>31614</v>
+      </c>
+      <c r="I38">
+        <v>30057</v>
+      </c>
+      <c r="J38">
+        <v>30272</v>
+      </c>
+      <c r="K38">
+        <v>29351</v>
+      </c>
+      <c r="L38">
+        <v>29228</v>
+      </c>
+      <c r="M38">
+        <v>28053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8700</v>
+      </c>
+      <c r="C39">
+        <v>8926</v>
+      </c>
+      <c r="D39">
+        <v>8894</v>
+      </c>
+      <c r="E39">
+        <v>8939</v>
+      </c>
+      <c r="F39">
+        <v>9019</v>
+      </c>
+      <c r="G39">
+        <v>9063</v>
+      </c>
+      <c r="H39">
+        <v>9073</v>
+      </c>
+      <c r="I39">
+        <v>9050</v>
+      </c>
+      <c r="J39">
+        <v>9303</v>
+      </c>
+      <c r="K39">
+        <v>9125</v>
+      </c>
+      <c r="L39">
+        <v>9068</v>
+      </c>
+      <c r="M39">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE63919-EDD9-AE49-BBC9-1F5B473A7AEE}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>13386</v>
+      </c>
+      <c r="C32">
+        <v>13508</v>
+      </c>
+      <c r="D32">
+        <v>13577</v>
+      </c>
+      <c r="E32">
+        <v>13643</v>
+      </c>
+      <c r="F32">
+        <v>13614</v>
+      </c>
+      <c r="G32">
+        <v>13822</v>
+      </c>
+      <c r="H32">
+        <v>13724</v>
+      </c>
+      <c r="I32">
+        <v>13788</v>
+      </c>
+      <c r="J32">
+        <v>13588</v>
+      </c>
+      <c r="K32">
+        <v>13455</v>
+      </c>
+      <c r="L32">
+        <v>13381</v>
+      </c>
+      <c r="M32">
+        <v>13314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>17004</v>
+      </c>
+      <c r="C33">
+        <v>16484</v>
+      </c>
+      <c r="D33">
+        <v>16561</v>
+      </c>
+      <c r="E33">
+        <v>16547</v>
+      </c>
+      <c r="F33">
+        <v>16948</v>
+      </c>
+      <c r="G33">
+        <v>16829</v>
+      </c>
+      <c r="H33">
+        <v>16672</v>
+      </c>
+      <c r="I33">
+        <v>17010</v>
+      </c>
+      <c r="J33">
+        <v>16503</v>
+      </c>
+      <c r="K33">
+        <v>17025</v>
+      </c>
+      <c r="L33">
+        <v>16728</v>
+      </c>
+      <c r="M33">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34444</v>
+      </c>
+      <c r="C34">
+        <v>33389</v>
+      </c>
+      <c r="D34">
+        <v>33612</v>
+      </c>
+      <c r="E34">
+        <v>34244</v>
+      </c>
+      <c r="F34">
+        <v>33949</v>
+      </c>
+      <c r="G34">
+        <v>32118</v>
+      </c>
+      <c r="H34">
+        <v>35080</v>
+      </c>
+      <c r="I34">
+        <v>36296</v>
+      </c>
+      <c r="J34">
+        <v>33231</v>
+      </c>
+      <c r="K34">
+        <v>32400</v>
+      </c>
+      <c r="L34">
+        <v>32275</v>
+      </c>
+      <c r="M34">
+        <v>31174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34865</v>
+      </c>
+      <c r="C35">
+        <v>33641</v>
+      </c>
+      <c r="D35">
+        <v>35163</v>
+      </c>
+      <c r="E35">
+        <v>34605</v>
+      </c>
+      <c r="F35">
+        <v>34435</v>
+      </c>
+      <c r="G35">
+        <v>32772</v>
+      </c>
+      <c r="H35">
+        <v>29643</v>
+      </c>
+      <c r="I35">
+        <v>22665</v>
+      </c>
+      <c r="J35">
+        <v>16794</v>
+      </c>
+      <c r="K35">
+        <v>16028</v>
+      </c>
+      <c r="L35">
+        <v>16781</v>
+      </c>
+      <c r="M35">
+        <v>17845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>34607</v>
+      </c>
+      <c r="C36">
+        <v>34911</v>
+      </c>
+      <c r="D36">
+        <v>35309</v>
+      </c>
+      <c r="E36">
+        <v>35274</v>
+      </c>
+      <c r="F36">
+        <v>34339</v>
+      </c>
+      <c r="G36">
+        <v>34620</v>
+      </c>
+      <c r="H36">
+        <v>28311</v>
+      </c>
+      <c r="I36">
+        <v>21756</v>
+      </c>
+      <c r="J36">
+        <v>16359</v>
+      </c>
+      <c r="K36">
+        <v>15939</v>
+      </c>
+      <c r="L36">
+        <v>16635</v>
+      </c>
+      <c r="M36">
+        <v>17871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>33910</v>
+      </c>
+      <c r="C37">
+        <v>35006</v>
+      </c>
+      <c r="D37">
+        <v>34257</v>
+      </c>
+      <c r="E37">
+        <v>34022</v>
+      </c>
+      <c r="F37">
+        <v>32764</v>
+      </c>
+      <c r="G37">
+        <v>31082</v>
+      </c>
+      <c r="H37">
+        <v>28079</v>
+      </c>
+      <c r="I37">
+        <v>21166</v>
+      </c>
+      <c r="J37">
+        <v>16516</v>
+      </c>
+      <c r="K37">
+        <v>15872</v>
+      </c>
+      <c r="L37">
+        <v>16621</v>
+      </c>
+      <c r="M37">
+        <v>17934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>33905</v>
+      </c>
+      <c r="C38">
+        <v>34562</v>
+      </c>
+      <c r="D38">
+        <v>33935</v>
+      </c>
+      <c r="E38">
+        <v>33764</v>
+      </c>
+      <c r="F38">
+        <v>35170</v>
+      </c>
+      <c r="G38">
+        <v>35566</v>
+      </c>
+      <c r="H38">
+        <v>33976</v>
+      </c>
+      <c r="I38">
+        <v>33308</v>
+      </c>
+      <c r="J38">
+        <v>32793</v>
+      </c>
+      <c r="K38">
+        <v>32679</v>
+      </c>
+      <c r="L38">
+        <v>32913</v>
+      </c>
+      <c r="M38">
+        <v>30066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>12639</v>
+      </c>
+      <c r="C39">
+        <v>12748</v>
+      </c>
+      <c r="D39">
+        <v>12791</v>
+      </c>
+      <c r="E39">
+        <v>12764</v>
+      </c>
+      <c r="F39">
+        <v>13035</v>
+      </c>
+      <c r="G39">
+        <v>12969</v>
+      </c>
+      <c r="H39">
+        <v>12953</v>
+      </c>
+      <c r="I39">
+        <v>12846</v>
+      </c>
+      <c r="J39">
+        <v>12724</v>
+      </c>
+      <c r="K39">
+        <v>12751</v>
+      </c>
+      <c r="L39">
+        <v>12601</v>
+      </c>
+      <c r="M39">
+        <v>12659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/neut_plate_reader_data/HC150044.xlsx
+++ b/data/neut_plate_reader_data/HC150044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB1FB9-F6E0-C448-AC7D-DF137C0CB57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225B232-760E-4348-AE22-A2FFD530BE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="4280" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="4280" windowWidth="27800" windowHeight="12580" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F159G" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="I192E" sheetId="6" r:id="rId5"/>
     <sheet name="K189D" sheetId="7" r:id="rId6"/>
     <sheet name="WT2" sheetId="8" r:id="rId7"/>
+    <sheet name="May K189D" sheetId="9" r:id="rId8"/>
+    <sheet name="May K189N" sheetId="10" r:id="rId9"/>
+    <sheet name="May WT" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -102,6 +105,97 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -662,8 +756,190 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="83">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -879,13 +1155,46 @@
   </si>
   <si>
     <t>8:53:23 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 9:01:23 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.7 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 9:00:26 AM</t>
+  </si>
+  <si>
+    <t>8:59:27 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:59:08 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:58:11 AM</t>
+  </si>
+  <si>
+    <t>8:57:12 AM</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:56:53 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.4 °C</t>
+  </si>
+  <si>
+    <t>5/9/2020 8:55:55 AM</t>
+  </si>
+  <si>
+    <t>8:54:57 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +1222,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1939,6 +2255,607 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A00931-1092-8345-978B-0331F9681ECC}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>13919</v>
+      </c>
+      <c r="C32">
+        <v>14445</v>
+      </c>
+      <c r="D32">
+        <v>14486</v>
+      </c>
+      <c r="E32">
+        <v>14785</v>
+      </c>
+      <c r="F32">
+        <v>14751</v>
+      </c>
+      <c r="G32">
+        <v>15025</v>
+      </c>
+      <c r="H32">
+        <v>15099</v>
+      </c>
+      <c r="I32">
+        <v>15008</v>
+      </c>
+      <c r="J32">
+        <v>15101</v>
+      </c>
+      <c r="K32">
+        <v>14645</v>
+      </c>
+      <c r="L32">
+        <v>14472</v>
+      </c>
+      <c r="M32">
+        <v>14168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>17458</v>
+      </c>
+      <c r="C33">
+        <v>17365</v>
+      </c>
+      <c r="D33">
+        <v>17410</v>
+      </c>
+      <c r="E33">
+        <v>17305</v>
+      </c>
+      <c r="F33">
+        <v>18286</v>
+      </c>
+      <c r="G33">
+        <v>17799</v>
+      </c>
+      <c r="H33">
+        <v>17918</v>
+      </c>
+      <c r="I33">
+        <v>17726</v>
+      </c>
+      <c r="J33">
+        <v>17799</v>
+      </c>
+      <c r="K33">
+        <v>17595</v>
+      </c>
+      <c r="L33">
+        <v>17312</v>
+      </c>
+      <c r="M33">
+        <v>17562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>38737</v>
+      </c>
+      <c r="C34">
+        <v>38925</v>
+      </c>
+      <c r="D34">
+        <v>39130</v>
+      </c>
+      <c r="E34">
+        <v>38971</v>
+      </c>
+      <c r="F34">
+        <v>39681</v>
+      </c>
+      <c r="G34">
+        <v>40766</v>
+      </c>
+      <c r="H34">
+        <v>40286</v>
+      </c>
+      <c r="I34">
+        <v>42169</v>
+      </c>
+      <c r="J34">
+        <v>39504</v>
+      </c>
+      <c r="K34">
+        <v>37710</v>
+      </c>
+      <c r="L34">
+        <v>39392</v>
+      </c>
+      <c r="M34">
+        <v>40043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37981</v>
+      </c>
+      <c r="C35">
+        <v>37676</v>
+      </c>
+      <c r="D35">
+        <v>37588</v>
+      </c>
+      <c r="E35">
+        <v>37775</v>
+      </c>
+      <c r="F35">
+        <v>36386</v>
+      </c>
+      <c r="G35">
+        <v>34966</v>
+      </c>
+      <c r="H35">
+        <v>30342</v>
+      </c>
+      <c r="I35">
+        <v>24213</v>
+      </c>
+      <c r="J35">
+        <v>18016</v>
+      </c>
+      <c r="K35">
+        <v>17223</v>
+      </c>
+      <c r="L35">
+        <v>17868</v>
+      </c>
+      <c r="M35">
+        <v>18895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>37253</v>
+      </c>
+      <c r="C36">
+        <v>36102</v>
+      </c>
+      <c r="D36">
+        <v>35900</v>
+      </c>
+      <c r="E36">
+        <v>34683</v>
+      </c>
+      <c r="F36">
+        <v>33809</v>
+      </c>
+      <c r="G36">
+        <v>33234</v>
+      </c>
+      <c r="H36">
+        <v>28850</v>
+      </c>
+      <c r="I36">
+        <v>22619</v>
+      </c>
+      <c r="J36">
+        <v>17720</v>
+      </c>
+      <c r="K36">
+        <v>17006</v>
+      </c>
+      <c r="L36">
+        <v>17675</v>
+      </c>
+      <c r="M36">
+        <v>18908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37029</v>
+      </c>
+      <c r="C37">
+        <v>37713</v>
+      </c>
+      <c r="D37">
+        <v>35936</v>
+      </c>
+      <c r="E37">
+        <v>37298</v>
+      </c>
+      <c r="F37">
+        <v>35583</v>
+      </c>
+      <c r="G37">
+        <v>33626</v>
+      </c>
+      <c r="H37">
+        <v>29392</v>
+      </c>
+      <c r="I37">
+        <v>22282</v>
+      </c>
+      <c r="J37">
+        <v>17681</v>
+      </c>
+      <c r="K37">
+        <v>16980</v>
+      </c>
+      <c r="L37">
+        <v>17279</v>
+      </c>
+      <c r="M37">
+        <v>18530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>37660</v>
+      </c>
+      <c r="C38">
+        <v>37018</v>
+      </c>
+      <c r="D38">
+        <v>37003</v>
+      </c>
+      <c r="E38">
+        <v>38389</v>
+      </c>
+      <c r="F38">
+        <v>37232</v>
+      </c>
+      <c r="G38">
+        <v>36520</v>
+      </c>
+      <c r="H38">
+        <v>36601</v>
+      </c>
+      <c r="I38">
+        <v>36914</v>
+      </c>
+      <c r="J38">
+        <v>37040</v>
+      </c>
+      <c r="K38">
+        <v>37183</v>
+      </c>
+      <c r="L38">
+        <v>38313</v>
+      </c>
+      <c r="M38">
+        <v>38083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>12923</v>
+      </c>
+      <c r="C39">
+        <v>13016</v>
+      </c>
+      <c r="D39">
+        <v>13379</v>
+      </c>
+      <c r="E39">
+        <v>13236</v>
+      </c>
+      <c r="F39">
+        <v>13478</v>
+      </c>
+      <c r="G39">
+        <v>13549</v>
+      </c>
+      <c r="H39">
+        <v>13451</v>
+      </c>
+      <c r="I39">
+        <v>13508</v>
+      </c>
+      <c r="J39">
+        <v>13352</v>
+      </c>
+      <c r="K39">
+        <v>13558</v>
+      </c>
+      <c r="L39">
+        <v>13460</v>
+      </c>
+      <c r="M39">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
@@ -3746,7 +4663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D323964-6EE0-7D48-9FDC-10AAE2A95300}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5543,4 +6460,1206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC540CD2-5704-1042-8364-86F30C80A013}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9681</v>
+      </c>
+      <c r="C32">
+        <v>9711</v>
+      </c>
+      <c r="D32">
+        <v>9726</v>
+      </c>
+      <c r="E32">
+        <v>9898</v>
+      </c>
+      <c r="F32">
+        <v>9892</v>
+      </c>
+      <c r="G32">
+        <v>10033</v>
+      </c>
+      <c r="H32">
+        <v>10117</v>
+      </c>
+      <c r="I32">
+        <v>10378</v>
+      </c>
+      <c r="J32">
+        <v>10083</v>
+      </c>
+      <c r="K32">
+        <v>10001</v>
+      </c>
+      <c r="L32">
+        <v>9898</v>
+      </c>
+      <c r="M32">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>12087</v>
+      </c>
+      <c r="C33">
+        <v>11829</v>
+      </c>
+      <c r="D33">
+        <v>11972</v>
+      </c>
+      <c r="E33">
+        <v>12180</v>
+      </c>
+      <c r="F33">
+        <v>12355</v>
+      </c>
+      <c r="G33">
+        <v>12235</v>
+      </c>
+      <c r="H33">
+        <v>12074</v>
+      </c>
+      <c r="I33">
+        <v>12510</v>
+      </c>
+      <c r="J33">
+        <v>12171</v>
+      </c>
+      <c r="K33">
+        <v>11977</v>
+      </c>
+      <c r="L33">
+        <v>12162</v>
+      </c>
+      <c r="M33">
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>38572</v>
+      </c>
+      <c r="C34">
+        <v>37953</v>
+      </c>
+      <c r="D34">
+        <v>39341</v>
+      </c>
+      <c r="E34">
+        <v>39714</v>
+      </c>
+      <c r="F34">
+        <v>39782</v>
+      </c>
+      <c r="G34">
+        <v>40250</v>
+      </c>
+      <c r="H34">
+        <v>40657</v>
+      </c>
+      <c r="I34">
+        <v>40238</v>
+      </c>
+      <c r="J34">
+        <v>38954</v>
+      </c>
+      <c r="K34">
+        <v>39719</v>
+      </c>
+      <c r="L34">
+        <v>38504</v>
+      </c>
+      <c r="M34">
+        <v>36945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37998</v>
+      </c>
+      <c r="C35">
+        <v>37314</v>
+      </c>
+      <c r="D35">
+        <v>37257</v>
+      </c>
+      <c r="E35">
+        <v>38374</v>
+      </c>
+      <c r="F35">
+        <v>36265</v>
+      </c>
+      <c r="G35">
+        <v>34226</v>
+      </c>
+      <c r="H35">
+        <v>30246</v>
+      </c>
+      <c r="I35">
+        <v>22579</v>
+      </c>
+      <c r="J35">
+        <v>16034</v>
+      </c>
+      <c r="K35">
+        <v>12517</v>
+      </c>
+      <c r="L35">
+        <v>12433</v>
+      </c>
+      <c r="M35">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>36231</v>
+      </c>
+      <c r="C36">
+        <v>36830</v>
+      </c>
+      <c r="D36">
+        <v>36463</v>
+      </c>
+      <c r="E36">
+        <v>36458</v>
+      </c>
+      <c r="F36">
+        <v>36581</v>
+      </c>
+      <c r="G36">
+        <v>34150</v>
+      </c>
+      <c r="H36">
+        <v>29455</v>
+      </c>
+      <c r="I36">
+        <v>22549</v>
+      </c>
+      <c r="J36">
+        <v>15448</v>
+      </c>
+      <c r="K36">
+        <v>12155</v>
+      </c>
+      <c r="L36">
+        <v>12099</v>
+      </c>
+      <c r="M36">
+        <v>13183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>37002</v>
+      </c>
+      <c r="C37">
+        <v>38690</v>
+      </c>
+      <c r="D37">
+        <v>37239</v>
+      </c>
+      <c r="E37">
+        <v>35388</v>
+      </c>
+      <c r="F37">
+        <v>34918</v>
+      </c>
+      <c r="G37">
+        <v>35088</v>
+      </c>
+      <c r="H37">
+        <v>29163</v>
+      </c>
+      <c r="I37">
+        <v>22071</v>
+      </c>
+      <c r="J37">
+        <v>15330</v>
+      </c>
+      <c r="K37">
+        <v>12140</v>
+      </c>
+      <c r="L37">
+        <v>12244</v>
+      </c>
+      <c r="M37">
+        <v>12998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>38759</v>
+      </c>
+      <c r="C38">
+        <v>37925</v>
+      </c>
+      <c r="D38">
+        <v>37244</v>
+      </c>
+      <c r="E38">
+        <v>36615</v>
+      </c>
+      <c r="F38">
+        <v>38885</v>
+      </c>
+      <c r="G38">
+        <v>37729</v>
+      </c>
+      <c r="H38">
+        <v>38964</v>
+      </c>
+      <c r="I38">
+        <v>37661</v>
+      </c>
+      <c r="J38">
+        <v>38264</v>
+      </c>
+      <c r="K38">
+        <v>36878</v>
+      </c>
+      <c r="L38">
+        <v>37846</v>
+      </c>
+      <c r="M38">
+        <v>36727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>8783</v>
+      </c>
+      <c r="C39">
+        <v>8972</v>
+      </c>
+      <c r="D39">
+        <v>9011</v>
+      </c>
+      <c r="E39">
+        <v>9046</v>
+      </c>
+      <c r="F39">
+        <v>9162</v>
+      </c>
+      <c r="G39">
+        <v>9232</v>
+      </c>
+      <c r="H39">
+        <v>9232</v>
+      </c>
+      <c r="I39">
+        <v>9270</v>
+      </c>
+      <c r="J39">
+        <v>9651</v>
+      </c>
+      <c r="K39">
+        <v>9346</v>
+      </c>
+      <c r="L39">
+        <v>9277</v>
+      </c>
+      <c r="M39">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE564FEF-C461-0844-A5F8-09C24EEBBCD2}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>21212</v>
+      </c>
+      <c r="C32">
+        <v>21989</v>
+      </c>
+      <c r="D32">
+        <v>21991</v>
+      </c>
+      <c r="E32">
+        <v>22311</v>
+      </c>
+      <c r="F32">
+        <v>22337</v>
+      </c>
+      <c r="G32">
+        <v>22683</v>
+      </c>
+      <c r="H32">
+        <v>22809</v>
+      </c>
+      <c r="I32">
+        <v>22605</v>
+      </c>
+      <c r="J32">
+        <v>23179</v>
+      </c>
+      <c r="K32">
+        <v>22391</v>
+      </c>
+      <c r="L32">
+        <v>22305</v>
+      </c>
+      <c r="M32">
+        <v>22086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>27292</v>
+      </c>
+      <c r="C33">
+        <v>27568</v>
+      </c>
+      <c r="D33">
+        <v>27111</v>
+      </c>
+      <c r="E33">
+        <v>27437</v>
+      </c>
+      <c r="F33">
+        <v>28385</v>
+      </c>
+      <c r="G33">
+        <v>27839</v>
+      </c>
+      <c r="H33">
+        <v>27860</v>
+      </c>
+      <c r="I33">
+        <v>27552</v>
+      </c>
+      <c r="J33">
+        <v>27598</v>
+      </c>
+      <c r="K33">
+        <v>27349</v>
+      </c>
+      <c r="L33">
+        <v>27541</v>
+      </c>
+      <c r="M33">
+        <v>27362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>41381</v>
+      </c>
+      <c r="C34">
+        <v>40541</v>
+      </c>
+      <c r="D34">
+        <v>40545</v>
+      </c>
+      <c r="E34">
+        <v>40403</v>
+      </c>
+      <c r="F34">
+        <v>41734</v>
+      </c>
+      <c r="G34">
+        <v>40848</v>
+      </c>
+      <c r="H34">
+        <v>41528</v>
+      </c>
+      <c r="I34">
+        <v>42745</v>
+      </c>
+      <c r="J34">
+        <v>40911</v>
+      </c>
+      <c r="K34">
+        <v>40096</v>
+      </c>
+      <c r="L34">
+        <v>40863</v>
+      </c>
+      <c r="M34">
+        <v>40668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>39542</v>
+      </c>
+      <c r="C35">
+        <v>40088</v>
+      </c>
+      <c r="D35">
+        <v>38617</v>
+      </c>
+      <c r="E35">
+        <v>38527</v>
+      </c>
+      <c r="F35">
+        <v>37602</v>
+      </c>
+      <c r="G35">
+        <v>37065</v>
+      </c>
+      <c r="H35">
+        <v>34475</v>
+      </c>
+      <c r="I35">
+        <v>30963</v>
+      </c>
+      <c r="J35">
+        <v>27138</v>
+      </c>
+      <c r="K35">
+        <v>27026</v>
+      </c>
+      <c r="L35">
+        <v>27777</v>
+      </c>
+      <c r="M35">
+        <v>29929</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38313</v>
+      </c>
+      <c r="C36">
+        <v>38887</v>
+      </c>
+      <c r="D36">
+        <v>38374</v>
+      </c>
+      <c r="E36">
+        <v>38579</v>
+      </c>
+      <c r="F36">
+        <v>38106</v>
+      </c>
+      <c r="G36">
+        <v>36889</v>
+      </c>
+      <c r="H36">
+        <v>34291</v>
+      </c>
+      <c r="I36">
+        <v>29925</v>
+      </c>
+      <c r="J36">
+        <v>27229</v>
+      </c>
+      <c r="K36">
+        <v>26837</v>
+      </c>
+      <c r="L36">
+        <v>27489</v>
+      </c>
+      <c r="M36">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>40275</v>
+      </c>
+      <c r="C37">
+        <v>38814</v>
+      </c>
+      <c r="D37">
+        <v>39190</v>
+      </c>
+      <c r="E37">
+        <v>38341</v>
+      </c>
+      <c r="F37">
+        <v>37912</v>
+      </c>
+      <c r="G37">
+        <v>36535</v>
+      </c>
+      <c r="H37">
+        <v>33236</v>
+      </c>
+      <c r="I37">
+        <v>29623</v>
+      </c>
+      <c r="J37">
+        <v>26822</v>
+      </c>
+      <c r="K37">
+        <v>26535</v>
+      </c>
+      <c r="L37">
+        <v>27496</v>
+      </c>
+      <c r="M37">
+        <v>29442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>39504</v>
+      </c>
+      <c r="C38">
+        <v>39374</v>
+      </c>
+      <c r="D38">
+        <v>38940</v>
+      </c>
+      <c r="E38">
+        <v>39043</v>
+      </c>
+      <c r="F38">
+        <v>39459</v>
+      </c>
+      <c r="G38">
+        <v>39373</v>
+      </c>
+      <c r="H38">
+        <v>39086</v>
+      </c>
+      <c r="I38">
+        <v>37982</v>
+      </c>
+      <c r="J38">
+        <v>38667</v>
+      </c>
+      <c r="K38">
+        <v>39594</v>
+      </c>
+      <c r="L38">
+        <v>40245</v>
+      </c>
+      <c r="M38">
+        <v>40064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>20021</v>
+      </c>
+      <c r="C39">
+        <v>20062</v>
+      </c>
+      <c r="D39">
+        <v>20249</v>
+      </c>
+      <c r="E39">
+        <v>20457</v>
+      </c>
+      <c r="F39">
+        <v>20547</v>
+      </c>
+      <c r="G39">
+        <v>20656</v>
+      </c>
+      <c r="H39">
+        <v>20701</v>
+      </c>
+      <c r="I39">
+        <v>20427</v>
+      </c>
+      <c r="J39">
+        <v>20556</v>
+      </c>
+      <c r="K39">
+        <v>20734</v>
+      </c>
+      <c r="L39">
+        <v>20426</v>
+      </c>
+      <c r="M39">
+        <v>20578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>